--- a/DB.xlsx
+++ b/DB.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15825" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15825" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="114">
   <si>
     <t>帖子</t>
   </si>
@@ -415,13 +415,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -430,351 +424,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -782,251 +452,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1041,57 +469,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
@@ -1382,15 +763,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="27.5" customWidth="1"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
@@ -1398,7 +778,7 @@
     <col min="5" max="5" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1440,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1454,7 +834,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1465,7 +845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1476,7 +856,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1487,7 +867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1535,7 +915,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -1546,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1571,7 +951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1599,7 +979,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -1613,7 +993,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>40</v>
       </c>
@@ -1627,7 +1007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1641,7 +1021,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -1655,7 +1035,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>46</v>
       </c>
@@ -1672,7 +1052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
@@ -1686,7 +1066,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>52</v>
       </c>
@@ -1697,7 +1077,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>54</v>
       </c>
@@ -1708,7 +1088,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1719,7 +1099,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -1730,7 +1110,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -1741,7 +1121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -1752,7 +1132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>64</v>
       </c>
@@ -1763,7 +1143,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1777,7 +1157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1788,7 +1168,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>34</v>
       </c>
@@ -1796,8 +1176,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" customFormat="1"/>
-    <row r="36" customFormat="1" spans="1:2">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1825,7 +1204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1839,7 +1218,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -1853,7 +1232,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1867,7 +1246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -1878,7 +1257,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" customFormat="1" spans="1:5">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -1889,7 +1268,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:5">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -1900,7 +1279,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="44" customFormat="1" spans="1:5">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>74</v>
       </c>
@@ -1911,7 +1290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="1:5">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -1922,7 +1301,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:5">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -1936,7 +1315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:5">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -1950,7 +1329,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="1:4">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>30</v>
       </c>
@@ -1964,7 +1343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1975,7 +1354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="50" customFormat="1" spans="1:2">
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>34</v>
       </c>
@@ -1983,7 +1362,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>83</v>
       </c>
@@ -2011,7 +1390,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2022,7 +1401,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>85</v>
       </c>
@@ -2033,7 +1412,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -2044,7 +1423,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>21</v>
       </c>
@@ -2058,7 +1437,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>30</v>
       </c>
@@ -2072,7 +1451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>31</v>
       </c>
@@ -2080,7 +1459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>34</v>
       </c>
@@ -2088,7 +1467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>90</v>
       </c>
@@ -2116,7 +1495,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -2130,7 +1509,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>11</v>
       </c>
@@ -2144,7 +1523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -2158,7 +1537,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>30</v>
       </c>
@@ -2172,7 +1551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>31</v>
       </c>
@@ -2180,7 +1559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>34</v>
       </c>
@@ -2188,7 +1567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>92</v>
       </c>
@@ -2216,7 +1595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -2230,7 +1609,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>11</v>
       </c>
@@ -2244,7 +1623,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>95</v>
       </c>
@@ -2258,7 +1637,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2269,7 +1648,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>21</v>
       </c>
@@ -2286,7 +1665,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>30</v>
       </c>
@@ -2300,7 +1679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>31</v>
       </c>
@@ -2308,7 +1687,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>34</v>
       </c>
@@ -2316,7 +1695,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>98</v>
       </c>
@@ -2344,7 +1723,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -2355,7 +1734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -2366,7 +1745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>18</v>
       </c>
@@ -2377,7 +1756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>30</v>
       </c>
@@ -2385,7 +1764,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>31</v>
       </c>
@@ -2393,7 +1772,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>34</v>
       </c>
@@ -2401,7 +1780,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>100</v>
       </c>
@@ -2429,7 +1808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>8</v>
       </c>
@@ -2440,7 +1819,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>15</v>
       </c>
@@ -2451,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>18</v>
       </c>
@@ -2462,7 +1841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>102</v>
       </c>
@@ -2470,13 +1849,13 @@
         <v>77</v>
       </c>
       <c r="D96" s="2">
-        <v>1</v>
+        <v>25569</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>104</v>
       </c>
@@ -2490,7 +1869,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>21</v>
       </c>
@@ -2507,7 +1886,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -2521,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -2529,7 +1908,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>34</v>
       </c>
@@ -2537,7 +1916,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>106</v>
       </c>
@@ -2565,7 +1944,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2576,7 +1955,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -2587,7 +1966,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -2598,7 +1977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>30</v>
       </c>
@@ -2606,7 +1985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>31</v>
       </c>
@@ -2614,7 +1993,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>34</v>
       </c>
@@ -2622,7 +2001,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>80</v>
       </c>
@@ -2650,7 +2029,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +2040,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>110</v>
       </c>
@@ -2672,7 +2051,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>112</v>
       </c>
@@ -2683,7 +2062,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>30</v>
       </c>
@@ -2691,7 +2070,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>31</v>
       </c>
@@ -2699,7 +2078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>34</v>
       </c>
@@ -2708,42 +2087,36 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/DB.xlsx
+++ b/DB.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="126">
   <si>
     <t>帖子</t>
   </si>
@@ -409,6 +409,54 @@
   </si>
   <si>
     <t>被关注者</t>
+  </si>
+  <si>
+    <t>post_read_nums</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ip</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅览者ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>integer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>帖子ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post阅读次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Post点赞次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_good_nums</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -764,10 +812,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F119"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2083,6 +2131,198 @@
         <v>34</v>
       </c>
       <c r="B119" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" t="s">
+        <v>2</v>
+      </c>
+      <c r="B123" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>6</v>
+      </c>
+      <c r="F123" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" t="s">
+        <v>8</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" t="s">
+        <v>120</v>
+      </c>
+      <c r="B125" t="s">
+        <v>121</v>
+      </c>
+      <c r="E125" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" t="s">
+        <v>115</v>
+      </c>
+      <c r="B126" t="s">
+        <v>117</v>
+      </c>
+      <c r="E126" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" t="s">
+        <v>116</v>
+      </c>
+      <c r="B127" t="s">
+        <v>117</v>
+      </c>
+      <c r="E127" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" t="s">
+        <v>31</v>
+      </c>
+      <c r="B129" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" t="s">
+        <v>34</v>
+      </c>
+      <c r="B130" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" t="s">
+        <v>124</v>
+      </c>
+      <c r="B132" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" t="s">
+        <v>2</v>
+      </c>
+      <c r="B133" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>4</v>
+      </c>
+      <c r="D133" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>6</v>
+      </c>
+      <c r="F133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" t="s">
+        <v>8</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" t="s">
+        <v>120</v>
+      </c>
+      <c r="B135" t="s">
+        <v>121</v>
+      </c>
+      <c r="E135" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" t="s">
+        <v>117</v>
+      </c>
+      <c r="E136" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" t="s">
+        <v>116</v>
+      </c>
+      <c r="B137" t="s">
+        <v>117</v>
+      </c>
+      <c r="E137" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" t="s">
+        <v>31</v>
+      </c>
+      <c r="B139" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" t="s">
+        <v>34</v>
+      </c>
+      <c r="B140" t="s">
         <v>32</v>
       </c>
     </row>
